--- a/biology/Microbiologie/Trichomonadidae/Trichomonadidae.xlsx
+++ b/biology/Microbiologie/Trichomonadidae/Trichomonadidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trichomonadidae sont une famille de protozoaires de l'ordre des Trichomonadida.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Trichomonadidae a été créée en 1918 par les biologistes Albert John Chalmers (d)[2] (1870-1920) et Wäinö Pekkola (d) (?-?), tous deux travaillant alors au Wellcome Tropical Research Laboratories à Khartoum.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Trichomonadidae a été créée en 1918 par les biologistes Albert John Chalmers (d) (1870-1920) et Wäinö Pekkola (d) (?-?), tous deux travaillant alors au Wellcome Tropical Research Laboratories à Khartoum.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-familles et des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Taxonomicon  (30 septembre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Taxonomicon  (30 septembre 2022) :
 Pentatrichomonoidinae B.M. Honigberg, 1963
 Pentatrichomonoides Kirby, 1931
 Trichomitopsinae G. Brugerolle, 1977
@@ -557,7 +573,7 @@
 non classés :
 Cochlosoma Kotlán, 1923
 Lacusteria Yubuki, Céza, Cepicka, Yabuki, Inagaki, Nakayama, Inouye &amp; Leander, 2010
-Selon GBIF       (19 novembre 2021)[1] :
+Selon GBIF       (19 novembre 2021) :
 Cimaenomonas B.Grassi, 1882
 Cyathomastix Prowazek &amp; Werner, 1915
 Exechlyga A.C.Stokes, 1884
